--- a/CHECKER.xlsx
+++ b/CHECKER.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8700"/>
+    <workbookView windowWidth="23040" windowHeight="9144"/>
   </bookViews>
   <sheets>
     <sheet name="CHECKER" sheetId="2" r:id="rId1"/>
@@ -338,12 +338,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -867,7 +867,31 @@
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="23">
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
     <dxf>
       <alignment wrapText="1"/>
     </dxf>
@@ -915,26 +939,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -946,7 +950,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" refreshedDate="45326.7388425926" refreshedBy="Jia Jun Lee" recordCount="108">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" refreshedDate="45341.8450810185" refreshedBy="Jia Jun Lee" recordCount="108">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="15">
     <cacheField name="BOM" numFmtId="0">
@@ -1414,10 +1418,11 @@
       </sharedItems>
     </cacheField>
     <cacheField name="CHECKER" numFmtId="0">
-      <sharedItems count="3">
+      <sharedItems count="4">
         <s v="Mount at Side 1 on Board 1,2,3,4"/>
         <s v="Mount at Side 1 on Board 1,2,3,4_x000a_Mount at Side 2 on Board 1,2,3,4"/>
         <s v="Mount at Side 2 on Board 1,2,3,4"/>
+        <s v="Mount at Side 1 on Board 1,2,3,4_x000a_Not found" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="LOCATION" numFmtId="0">
@@ -3378,7 +3383,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" createdVersion="5" useAutoFormatting="1" compact="0" indent="0" compactData="0" showDrill="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RESULT" cacheId="0" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" createdVersion="5" useAutoFormatting="1" compact="0" indent="0" compactData="0" showDrill="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A3:I7" firstHeaderRow="0" firstDataRow="1" firstDataCol="7"/>
   <pivotFields count="15">
     <pivotField axis="axisRow" compact="0" defaultSubtotal="0" outline="0" showAll="0">
@@ -3728,7 +3733,6 @@
         <item x="20"/>
         <item x="5"/>
         <item x="6"/>
-        <item x="1"/>
         <item x="13"/>
         <item x="16"/>
         <item x="7"/>
@@ -3771,6 +3775,7 @@
         <item x="93"/>
         <item x="99"/>
         <item x="89"/>
+        <item x="1"/>
       </items>
     </pivotField>
     <pivotField compact="0" defaultSubtotal="0" outline="0" showAll="0">
@@ -3846,10 +3851,11 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" defaultSubtotal="0" outline="0" showAll="0">
-      <items count="3">
+      <items count="4">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
+        <item m="1" x="3"/>
       </items>
     </pivotField>
     <pivotField compact="0" defaultSubtotal="0" outline="0" showAll="0">
@@ -3921,7 +3927,6 @@
         <item x="54"/>
         <item x="35"/>
         <item x="84"/>
-        <item x="1"/>
         <item x="52"/>
         <item x="81"/>
         <item x="97"/>
@@ -3962,6 +3967,7 @@
         <item x="99"/>
         <item x="104"/>
         <item x="106"/>
+        <item x="1"/>
       </items>
     </pivotField>
   </pivotFields>
@@ -4011,7 +4017,7 @@
     <dataField name="Count of COMPONENT" fld="5" subtotal="count" baseField="0" baseItem="0"/>
     <dataField name="Sum of QUANTITY" fld="7" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="5">
+  <formats count="17">
     <format dxfId="0">
       <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
@@ -4088,6 +4094,210 @@
       </pivotArea>
     </format>
     <format dxfId="4">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" offset="F1:F1" fieldPosition="0"/>
+    </format>
+    <format dxfId="5">
+      <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="6">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="6">
+          <reference field="13" count="1">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="7">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="6">
+          <reference field="13" count="1">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="8">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="6">
+          <reference field="13" count="1">
+            <x v="2"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="9">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="6">
+          <reference field="13" count="1">
+            <x v="3"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="10">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" offset="F1:F1" fieldPosition="0"/>
+    </format>
+    <format dxfId="11">
+      <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="12">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="6">
+          <reference field="13" count="1">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="13">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="6">
+          <reference field="13" count="1">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="14">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="6">
+          <reference field="13" count="1">
+            <x v="2"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="15">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="6">
+          <reference field="13" count="1">
+            <x v="3"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" offset="F1:F1" fieldPosition="0"/>
     </format>
   </formats>
@@ -4104,11 +4314,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="CHECKER" displayName="CHECKER" ref="A1:E2" totalsRowShown="0">
   <autoFilter ref="A1:E2"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="BOM" dataDxfId="5"/>
-    <tableColumn id="2" name="MCTO" dataDxfId="6"/>
+    <tableColumn id="1" name="BOM" dataDxfId="17"/>
+    <tableColumn id="2" name="MCTO" dataDxfId="18"/>
     <tableColumn id="5" name="PV"/>
-    <tableColumn id="3" name="PNP_PROGRAM_SIDE1" dataDxfId="7"/>
-    <tableColumn id="4" name="PNP_PROGRAM_SIDE2" dataDxfId="8"/>
+    <tableColumn id="3" name="PNP_PROGRAM_SIDE1" dataDxfId="19"/>
+    <tableColumn id="4" name="PNP_PROGRAM_SIDE2" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4380,7 +4590,9 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -4440,18 +4652,22 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="12.4444444444444" customWidth="1"/>
     <col min="3" max="3" width="6"/>
     <col min="4" max="5" width="24.2222222222222"/>
-    <col min="6" max="6" width="59.7777777777778" style="2"/>
+    <col min="6" max="6" width="54.4444444444444" style="2" customWidth="1"/>
     <col min="7" max="7" width="25.2222222222222"/>
     <col min="8" max="9" width="21.6666666666667"/>
   </cols>
@@ -4560,26 +4776,29 @@
         <v>1015</v>
       </c>
     </row>
+    <row r="8" spans="6:6">
+      <c r="F8"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="F$1:F$1048576">
-    <cfRule type="containsText" dxfId="9" priority="3" stopIfTrue="1" operator="between" text="Not Found">
+    <cfRule type="containsText" dxfId="21" priority="3" stopIfTrue="1" operator="between" text="Not Found">
       <formula>NOT(ISERROR(SEARCH("Not Found",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="5" stopIfTrue="1" operator="between" text="Something wrong">
+    <cfRule type="containsText" dxfId="21" priority="5" stopIfTrue="1" operator="between" text="Something wrong">
       <formula>NOT(ISERROR(SEARCH("Something wrong",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="4" stopIfTrue="1" operator="between" text="Extra Mount">
+    <cfRule type="containsText" dxfId="21" priority="4" stopIfTrue="1" operator="between" text="Extra Mount">
       <formula>NOT(ISERROR(SEARCH("Extra Mount",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="6" stopIfTrue="1" operator="between" text="Mount">
+    <cfRule type="containsText" dxfId="22" priority="6" stopIfTrue="1" operator="between" text="Mount">
       <formula>NOT(ISERROR(SEARCH("Mount",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G$1:G$1048576">
-    <cfRule type="containsText" dxfId="11" priority="1" stopIfTrue="1" operator="between" text="No">
+    <cfRule type="containsText" dxfId="21" priority="1" stopIfTrue="1" operator="between" text="No">
       <formula>NOT(ISERROR(SEARCH("No",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="2" stopIfTrue="1" operator="between" text="Yes">
+    <cfRule type="containsText" dxfId="22" priority="2" stopIfTrue="1" operator="between" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
